--- a/Code/Results/Cases/Case_1_93/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_93/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.246630629126194</v>
+        <v>7.76548733449558</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.117948433259155</v>
+        <v>4.4530821209041</v>
       </c>
       <c r="E2">
-        <v>33.24564014523219</v>
+        <v>16.80072893514019</v>
       </c>
       <c r="F2">
-        <v>56.03349572408069</v>
+        <v>31.66688530865378</v>
       </c>
       <c r="G2">
-        <v>90.90791262272089</v>
+        <v>47.97825748599407</v>
       </c>
       <c r="H2">
-        <v>22.59859069808387</v>
+        <v>14.99599398427061</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.23732044346314</v>
+        <v>18.20530214750648</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.893046346234853</v>
+        <v>7.690488708080919</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.564725168179632</v>
+        <v>4.256110385767948</v>
       </c>
       <c r="E3">
-        <v>30.44602407240638</v>
+        <v>15.81414347791596</v>
       </c>
       <c r="F3">
-        <v>51.50995540373383</v>
+        <v>30.1364997654836</v>
       </c>
       <c r="G3">
-        <v>83.54468293113754</v>
+        <v>45.07585997036803</v>
       </c>
       <c r="H3">
-        <v>20.76918405709202</v>
+        <v>14.56739984798534</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.40490238992828</v>
+        <v>17.93039231733595</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.669007590712734</v>
+        <v>7.645832371061269</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.220779729630146</v>
+        <v>4.129921971931488</v>
       </c>
       <c r="E4">
-        <v>28.70360774165395</v>
+        <v>15.18345797957187</v>
       </c>
       <c r="F4">
-        <v>48.66662396442955</v>
+        <v>29.16934848132706</v>
       </c>
       <c r="G4">
-        <v>78.91792757778715</v>
+        <v>43.21230408299177</v>
       </c>
       <c r="H4">
-        <v>19.62021966259337</v>
+        <v>14.30402308097859</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.87747365336571</v>
+        <v>17.76180298315366</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.576098376390302</v>
+        <v>7.628005955137651</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.079077255976997</v>
+        <v>4.077210539987413</v>
       </c>
       <c r="E5">
-        <v>27.98506360375699</v>
+        <v>14.92044224378858</v>
       </c>
       <c r="F5">
-        <v>47.48847189592077</v>
+        <v>28.76891537651177</v>
       </c>
       <c r="G5">
-        <v>77.00104442509097</v>
+        <v>42.43304870019238</v>
       </c>
       <c r="H5">
-        <v>19.14434842402656</v>
+        <v>14.19681494693921</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.65875149195256</v>
+        <v>17.69323820308981</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.560577813400377</v>
+        <v>7.62506892762707</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.055442832268741</v>
+        <v>4.06838101841469</v>
       </c>
       <c r="E6">
-        <v>27.86517127601024</v>
+        <v>14.87641457860602</v>
       </c>
       <c r="F6">
-        <v>47.29159112462232</v>
+        <v>28.70206186205763</v>
       </c>
       <c r="G6">
-        <v>76.6807253405556</v>
+        <v>42.30247733761876</v>
       </c>
       <c r="H6">
-        <v>19.0648376574445</v>
+        <v>14.17902561583299</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.62221383307329</v>
+        <v>17.68186382811895</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.66776091961179</v>
+        <v>7.645590426591721</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.218875465850374</v>
+        <v>4.129216260298202</v>
       </c>
       <c r="E7">
-        <v>28.69395462944349</v>
+        <v>15.17993479371136</v>
       </c>
       <c r="F7">
-        <v>48.65081722954503</v>
+        <v>29.16397279584906</v>
       </c>
       <c r="G7">
-        <v>78.8922088163085</v>
+        <v>43.20187414878671</v>
       </c>
       <c r="H7">
-        <v>19.61383430053029</v>
+        <v>14.30257651222966</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.87453879493523</v>
+        <v>17.76087762816193</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.126227888204598</v>
+        <v>7.739351513268206</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.927761462534695</v>
+        <v>4.386272154184288</v>
       </c>
       <c r="E8">
-        <v>32.28343237765775</v>
+        <v>16.46586561567118</v>
       </c>
       <c r="F8">
-        <v>54.48547941948176</v>
+        <v>31.14524790463039</v>
       </c>
       <c r="G8">
-        <v>88.38772385987006</v>
+        <v>46.99476461840648</v>
       </c>
       <c r="H8">
-        <v>21.97233526688954</v>
+        <v>14.84836263646827</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.95386594323662</v>
+        <v>18.11052099476146</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.965389323045747</v>
+        <v>7.933315105475813</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.313561151385988</v>
+        <v>4.847626781533176</v>
       </c>
       <c r="E9">
-        <v>39.29836858976724</v>
+        <v>18.96963095844109</v>
       </c>
       <c r="F9">
-        <v>65.58324063446845</v>
+        <v>34.79019700568814</v>
       </c>
       <c r="G9">
-        <v>106.467466346509</v>
+        <v>53.76441982954865</v>
       </c>
       <c r="H9">
-        <v>26.46707208226041</v>
+        <v>15.90964749827232</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.92909527242059</v>
+        <v>18.79413998554015</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.566996749135541</v>
+        <v>8.080666255167996</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.393072066362066</v>
+        <v>5.159375015272185</v>
       </c>
       <c r="E10">
-        <v>44.79031850332398</v>
+        <v>20.7005264712871</v>
       </c>
       <c r="F10">
-        <v>73.90399863663308</v>
+        <v>37.29712272872882</v>
       </c>
       <c r="G10">
-        <v>120.0492414640807</v>
+        <v>58.30908890538318</v>
       </c>
       <c r="H10">
-        <v>29.84590663756818</v>
+        <v>16.67484774318615</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>23.28076484706836</v>
+        <v>19.2903645072747</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.868737088010024</v>
+        <v>8.148469166187589</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.924779221175777</v>
+        <v>5.295119806458914</v>
       </c>
       <c r="E11">
-        <v>47.51498107907745</v>
+        <v>21.44630217105968</v>
       </c>
       <c r="F11">
-        <v>77.88147330100394</v>
+        <v>38.39657939506925</v>
       </c>
       <c r="G11">
-        <v>126.5528085089368</v>
+        <v>60.28053908437305</v>
       </c>
       <c r="H11">
-        <v>31.46433111800178</v>
+        <v>17.01811053947613</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>23.87186472340122</v>
+        <v>19.51383106981896</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.980484619735513</v>
+        <v>8.174231662406697</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.13636775195783</v>
+        <v>5.345639535607845</v>
       </c>
       <c r="E12">
-        <v>48.60442632030578</v>
+        <v>21.72277565408117</v>
       </c>
       <c r="F12">
-        <v>79.43986259407197</v>
+        <v>38.8067745188044</v>
       </c>
       <c r="G12">
-        <v>129.1033499151022</v>
+        <v>61.01311911472015</v>
       </c>
       <c r="H12">
-        <v>32.09910688371926</v>
+        <v>17.14727530363974</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>24.09213181238057</v>
+        <v>19.59804885977368</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.956529331384514</v>
+        <v>8.16867975878044</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.09023638305985</v>
+        <v>5.334798663661699</v>
       </c>
       <c r="E13">
-        <v>48.36661410310736</v>
+        <v>21.66349534754383</v>
       </c>
       <c r="F13">
-        <v>79.10132678293859</v>
+        <v>38.71870855538847</v>
       </c>
       <c r="G13">
-        <v>128.549159412227</v>
+        <v>60.85596817346871</v>
       </c>
       <c r="H13">
-        <v>31.96117757104124</v>
+        <v>17.11949578527255</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>24.04485425157786</v>
+        <v>19.57993023154881</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.877980916326772</v>
+        <v>8.150587055476279</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.941944613208314</v>
+        <v>5.299293861980987</v>
       </c>
       <c r="E14">
-        <v>47.60324170131936</v>
+        <v>21.46916648747204</v>
       </c>
       <c r="F14">
-        <v>78.00843325340348</v>
+        <v>38.43045085574376</v>
       </c>
       <c r="G14">
-        <v>126.7605436609518</v>
+        <v>60.34108956117144</v>
       </c>
       <c r="H14">
-        <v>31.5160306434167</v>
+        <v>17.02875414856346</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>23.89005854492975</v>
+        <v>19.5207682522703</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.829540801259888</v>
+        <v>8.13951537306626</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.852629584382086</v>
+        <v>5.277430761849357</v>
       </c>
       <c r="E15">
-        <v>47.14422680566013</v>
+        <v>21.34936291773622</v>
       </c>
       <c r="F15">
-        <v>77.34682033243374</v>
+        <v>38.25307759903486</v>
       </c>
       <c r="G15">
-        <v>125.6780976155805</v>
+        <v>60.02388868579952</v>
       </c>
       <c r="H15">
-        <v>31.24664253660748</v>
+        <v>16.97306174473784</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>23.79477278991586</v>
+        <v>19.48447494387074</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.546924303489456</v>
+        <v>8.076248655077107</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.359453866363712</v>
+        <v>5.150380618130106</v>
       </c>
       <c r="E16">
-        <v>44.61858315139339</v>
+        <v>20.65095500525945</v>
       </c>
       <c r="F16">
-        <v>73.64968622820899</v>
+        <v>37.2244235607972</v>
       </c>
       <c r="G16">
-        <v>119.6336921692032</v>
+        <v>58.17830377378787</v>
       </c>
       <c r="H16">
-        <v>29.74250584016862</v>
+        <v>16.65230639989389</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>23.24164318204577</v>
+        <v>19.27570805562913</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.376498625130663</v>
+        <v>8.037617191288184</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.06963904758897</v>
+        <v>5.070875926456215</v>
       </c>
       <c r="E17">
-        <v>43.14030145762351</v>
+        <v>20.21187991088275</v>
       </c>
       <c r="F17">
-        <v>71.44398488205547</v>
+        <v>36.58269053228319</v>
       </c>
       <c r="G17">
-        <v>116.0308201286632</v>
+        <v>57.02138715638986</v>
       </c>
       <c r="H17">
-        <v>28.846058319535</v>
+        <v>16.45420217812308</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.89611080376318</v>
+        <v>19.14699881872643</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.291034355919704</v>
+        <v>8.015471503473728</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.906406401175271</v>
+        <v>5.024575959885126</v>
       </c>
       <c r="E18">
-        <v>42.30925376478735</v>
+        <v>19.95541536592146</v>
       </c>
       <c r="F18">
-        <v>70.19141053180374</v>
+        <v>36.20973971098365</v>
       </c>
       <c r="G18">
-        <v>113.9857790194216</v>
+        <v>56.34693520985559</v>
       </c>
       <c r="H18">
-        <v>28.33726613138038</v>
+        <v>16.33981001259289</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.69513864179612</v>
+        <v>19.07275961144547</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.26194001762741</v>
+        <v>8.00798681698603</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.851640870270064</v>
+        <v>5.008801897977272</v>
       </c>
       <c r="E19">
-        <v>42.03065679258152</v>
+        <v>19.86790610021658</v>
       </c>
       <c r="F19">
-        <v>69.76955167229342</v>
+        <v>36.08281351125076</v>
       </c>
       <c r="G19">
-        <v>113.2971701553253</v>
+        <v>56.11703346922739</v>
       </c>
       <c r="H19">
-        <v>28.16595259224449</v>
+        <v>16.30100592805423</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.62671469075572</v>
+        <v>19.04759001474561</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.392240843817188</v>
+        <v>8.041722081219453</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.1001089814428</v>
+        <v>5.079398517153265</v>
       </c>
       <c r="E20">
-        <v>43.29554722129468</v>
+        <v>20.25902557245064</v>
       </c>
       <c r="F20">
-        <v>71.67699005828179</v>
+        <v>36.65140384155789</v>
       </c>
       <c r="G20">
-        <v>116.4113151973264</v>
+        <v>57.14547825128386</v>
       </c>
       <c r="H20">
-        <v>28.94072650946135</v>
+        <v>16.47533801822657</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.93312538412439</v>
+        <v>19.16072234870305</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.901120589404266</v>
+        <v>8.155899150234889</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.985172229555634</v>
+        <v>5.309746544556469</v>
       </c>
       <c r="E21">
-        <v>47.82560118421785</v>
+        <v>21.52640628333927</v>
       </c>
       <c r="F21">
-        <v>78.32774261052123</v>
+        <v>38.51528771957199</v>
       </c>
       <c r="G21">
-        <v>127.2830476160727</v>
+        <v>60.49270200548502</v>
       </c>
       <c r="H21">
-        <v>31.64606848862707</v>
+        <v>17.0554304110521</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>23.93562375281779</v>
+        <v>19.53815713259445</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.221723313091616</v>
+        <v>8.231016616546967</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.62848554196542</v>
+        <v>5.455137147564349</v>
       </c>
       <c r="E22">
-        <v>51.1527341234156</v>
+        <v>22.32013858859541</v>
       </c>
       <c r="F22">
-        <v>83.00687130045034</v>
+        <v>39.69753703054367</v>
       </c>
       <c r="G22">
-        <v>134.9471908816511</v>
+        <v>62.59886043891643</v>
       </c>
       <c r="H22">
-        <v>33.55364072727303</v>
+        <v>17.42971607441627</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>24.5699544174219</v>
+        <v>19.7824431729434</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.051945609603294</v>
+        <v>8.19088749503514</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.27669120441184</v>
+        <v>5.378014062561288</v>
       </c>
       <c r="E23">
-        <v>49.32886037695864</v>
+        <v>21.89965602861509</v>
       </c>
       <c r="F23">
-        <v>80.46532830195133</v>
+        <v>39.06990661277872</v>
       </c>
       <c r="G23">
-        <v>130.7825003784469</v>
+        <v>61.4822596397713</v>
       </c>
       <c r="H23">
-        <v>32.51703088151399</v>
+        <v>17.23043429362993</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>24.23335248413411</v>
+        <v>19.65230661566006</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.385126792662872</v>
+        <v>8.039866059139563</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.086323257699505</v>
+        <v>5.075547295935355</v>
       </c>
       <c r="E24">
-        <v>43.22530352389218</v>
+        <v>20.23772358888641</v>
       </c>
       <c r="F24">
-        <v>71.57160166831471</v>
+        <v>36.62035102466096</v>
       </c>
       <c r="G24">
-        <v>116.2392140847116</v>
+        <v>57.08940569978319</v>
       </c>
       <c r="H24">
-        <v>28.89790715461465</v>
+        <v>16.46578405071612</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.91639831010817</v>
+        <v>19.15451869034861</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.745392391361772</v>
+        <v>7.879895846024574</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.934064160509309</v>
+        <v>4.727527600169029</v>
       </c>
       <c r="E25">
-        <v>37.37543895393694</v>
+        <v>18.29498466018679</v>
       </c>
       <c r="F25">
-        <v>62.58753621973645</v>
+        <v>33.83266512629792</v>
       </c>
       <c r="G25">
-        <v>101.5838375087875</v>
+        <v>52.00717024423898</v>
       </c>
       <c r="H25">
-        <v>25.25256024800277</v>
+        <v>15.62447975441807</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.41138112085529</v>
+        <v>18.60992361498235</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_93/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_93/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.76548733449558</v>
+        <v>7.246630629126208</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.4530821209041</v>
+        <v>7.117948433259054</v>
       </c>
       <c r="E2">
-        <v>16.80072893514019</v>
+        <v>33.24564014523217</v>
       </c>
       <c r="F2">
-        <v>31.66688530865378</v>
+        <v>56.03349572408071</v>
       </c>
       <c r="G2">
-        <v>47.97825748599407</v>
+        <v>90.90791262272087</v>
       </c>
       <c r="H2">
-        <v>14.99599398427061</v>
+        <v>22.59859069808383</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.20530214750648</v>
+        <v>20.23732044346318</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.690488708080919</v>
+        <v>6.893046346234883</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.256110385767948</v>
+        <v>6.564725168179692</v>
       </c>
       <c r="E3">
-        <v>15.81414347791596</v>
+        <v>30.44602407240646</v>
       </c>
       <c r="F3">
-        <v>30.1364997654836</v>
+        <v>51.50995540373385</v>
       </c>
       <c r="G3">
-        <v>45.07585997036803</v>
+        <v>83.54468293113764</v>
       </c>
       <c r="H3">
-        <v>14.56739984798534</v>
+        <v>20.76918405709201</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.93039231733595</v>
+        <v>19.40490238992826</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.645832371061269</v>
+        <v>6.669007590712734</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.129921971931488</v>
+        <v>6.22077972963008</v>
       </c>
       <c r="E4">
-        <v>15.18345797957187</v>
+        <v>28.70360774165401</v>
       </c>
       <c r="F4">
-        <v>29.16934848132706</v>
+        <v>48.66662396442968</v>
       </c>
       <c r="G4">
-        <v>43.21230408299177</v>
+        <v>78.9179275777873</v>
       </c>
       <c r="H4">
-        <v>14.30402308097859</v>
+        <v>19.62021966259342</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.76180298315366</v>
+        <v>18.87747365336572</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.628005955137651</v>
+        <v>6.57609837639032</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.077210539987413</v>
+        <v>6.079077255977003</v>
       </c>
       <c r="E5">
-        <v>14.92044224378858</v>
+        <v>27.98506360375694</v>
       </c>
       <c r="F5">
-        <v>28.76891537651177</v>
+        <v>47.48847189592068</v>
       </c>
       <c r="G5">
-        <v>42.43304870019238</v>
+        <v>77.00104442509081</v>
       </c>
       <c r="H5">
-        <v>14.19681494693921</v>
+        <v>19.1443484240265</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.69323820308981</v>
+        <v>18.65875149195254</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.62506892762707</v>
+        <v>6.560577813400345</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.06838101841469</v>
+        <v>6.055442832268699</v>
       </c>
       <c r="E6">
-        <v>14.87641457860602</v>
+        <v>27.86517127601033</v>
       </c>
       <c r="F6">
-        <v>28.70206186205763</v>
+        <v>47.29159112462241</v>
       </c>
       <c r="G6">
-        <v>42.30247733761876</v>
+        <v>76.6807253405557</v>
       </c>
       <c r="H6">
-        <v>14.17902561583299</v>
+        <v>19.06483765744455</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.68186382811895</v>
+        <v>18.62221383307329</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.645590426591721</v>
+        <v>6.66776091961189</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.129216260298202</v>
+        <v>6.218875465850234</v>
       </c>
       <c r="E7">
-        <v>15.17993479371136</v>
+        <v>28.6939546294436</v>
       </c>
       <c r="F7">
-        <v>29.16397279584906</v>
+        <v>48.65081722954531</v>
       </c>
       <c r="G7">
-        <v>43.20187414878671</v>
+        <v>78.89220881630884</v>
       </c>
       <c r="H7">
-        <v>14.30257651222966</v>
+        <v>19.61383430053038</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.76087762816193</v>
+        <v>18.87453879493521</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.739351513268206</v>
+        <v>7.126227888204692</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.386272154184288</v>
+        <v>6.927761462534806</v>
       </c>
       <c r="E8">
-        <v>16.46586561567118</v>
+        <v>32.28343237765781</v>
       </c>
       <c r="F8">
-        <v>31.14524790463039</v>
+        <v>54.48547941948202</v>
       </c>
       <c r="G8">
-        <v>46.99476461840648</v>
+        <v>88.38772385987036</v>
       </c>
       <c r="H8">
-        <v>14.84836263646827</v>
+        <v>21.97233526688965</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.11052099476146</v>
+        <v>19.95386594323657</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.933315105475813</v>
+        <v>7.965389323045737</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.847626781533176</v>
+        <v>8.313561151385944</v>
       </c>
       <c r="E9">
-        <v>18.96963095844109</v>
+        <v>39.29836858976719</v>
       </c>
       <c r="F9">
-        <v>34.79019700568814</v>
+        <v>65.58324063446864</v>
       </c>
       <c r="G9">
-        <v>53.76441982954865</v>
+        <v>106.4674663465093</v>
       </c>
       <c r="H9">
-        <v>15.90964749827232</v>
+        <v>26.46707208226047</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.79413998554015</v>
+        <v>21.92909527242058</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.080666255167996</v>
+        <v>8.566996749135612</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.159375015272185</v>
+        <v>9.393072066362281</v>
       </c>
       <c r="E10">
-        <v>20.7005264712871</v>
+        <v>44.79031850332395</v>
       </c>
       <c r="F10">
-        <v>37.29712272872882</v>
+        <v>73.90399863663313</v>
       </c>
       <c r="G10">
-        <v>58.30908890538318</v>
+        <v>120.0492414640809</v>
       </c>
       <c r="H10">
-        <v>16.67484774318615</v>
+        <v>29.8459066375682</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.2903645072747</v>
+        <v>23.28076484706835</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.148469166187589</v>
+        <v>8.868737088010032</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.295119806458914</v>
+        <v>9.924779221175783</v>
       </c>
       <c r="E11">
-        <v>21.44630217105968</v>
+        <v>47.51498107907734</v>
       </c>
       <c r="F11">
-        <v>38.39657939506925</v>
+        <v>77.88147330100377</v>
       </c>
       <c r="G11">
-        <v>60.28053908437305</v>
+        <v>126.5528085089365</v>
       </c>
       <c r="H11">
-        <v>17.01811053947613</v>
+        <v>31.46433111800171</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.51383106981896</v>
+        <v>23.87186472340125</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.174231662406697</v>
+        <v>8.980484619735533</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.345639535607845</v>
+        <v>10.13636775195779</v>
       </c>
       <c r="E12">
-        <v>21.72277565408117</v>
+        <v>48.60442632030572</v>
       </c>
       <c r="F12">
-        <v>38.8067745188044</v>
+        <v>79.43986259407187</v>
       </c>
       <c r="G12">
-        <v>61.01311911472015</v>
+        <v>129.1033499151021</v>
       </c>
       <c r="H12">
-        <v>17.14727530363974</v>
+        <v>32.09910688371922</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.59804885977368</v>
+        <v>24.09213181238059</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.16867975878044</v>
+        <v>8.9565293313845</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.334798663661699</v>
+        <v>10.0902363830599</v>
       </c>
       <c r="E13">
-        <v>21.66349534754383</v>
+        <v>48.36661410310734</v>
       </c>
       <c r="F13">
-        <v>38.71870855538847</v>
+        <v>79.10132678293832</v>
       </c>
       <c r="G13">
-        <v>60.85596817346871</v>
+        <v>128.5491594122267</v>
       </c>
       <c r="H13">
-        <v>17.11949578527255</v>
+        <v>31.96117757104114</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.57993023154881</v>
+        <v>24.04485425157791</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.150587055476279</v>
+        <v>8.87798091632672</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.299293861980987</v>
+        <v>9.941944613208301</v>
       </c>
       <c r="E14">
-        <v>21.46916648747204</v>
+        <v>47.60324170131946</v>
       </c>
       <c r="F14">
-        <v>38.43045085574376</v>
+        <v>78.00843325340345</v>
       </c>
       <c r="G14">
-        <v>60.34108956117144</v>
+        <v>126.7605436609517</v>
       </c>
       <c r="H14">
-        <v>17.02875414856346</v>
+        <v>31.51603064341671</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.5207682522703</v>
+        <v>23.89005854492977</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.13951537306626</v>
+        <v>8.829540801259888</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.277430761849357</v>
+        <v>9.852629584382049</v>
       </c>
       <c r="E15">
-        <v>21.34936291773622</v>
+        <v>47.14422680566005</v>
       </c>
       <c r="F15">
-        <v>38.25307759903486</v>
+        <v>77.34682033243338</v>
       </c>
       <c r="G15">
-        <v>60.02388868579952</v>
+        <v>125.6780976155799</v>
       </c>
       <c r="H15">
-        <v>16.97306174473784</v>
+        <v>31.24664253660732</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.48447494387074</v>
+        <v>23.79477278991589</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.076248655077107</v>
+        <v>8.546924303489414</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.150380618130106</v>
+        <v>9.359453866363785</v>
       </c>
       <c r="E16">
-        <v>20.65095500525945</v>
+        <v>44.61858315139339</v>
       </c>
       <c r="F16">
-        <v>37.2244235607972</v>
+        <v>73.64968622820912</v>
       </c>
       <c r="G16">
-        <v>58.17830377378787</v>
+        <v>119.6336921692034</v>
       </c>
       <c r="H16">
-        <v>16.65230639989389</v>
+        <v>29.74250584016871</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.27570805562913</v>
+        <v>23.24164318204572</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.037617191288184</v>
+        <v>8.376498625130704</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.070875926456215</v>
+        <v>9.069639047589078</v>
       </c>
       <c r="E17">
-        <v>20.21187991088275</v>
+        <v>43.14030145762344</v>
       </c>
       <c r="F17">
-        <v>36.58269053228319</v>
+        <v>71.44398488205546</v>
       </c>
       <c r="G17">
-        <v>57.02138715638986</v>
+        <v>116.0308201286632</v>
       </c>
       <c r="H17">
-        <v>16.45420217812308</v>
+        <v>28.846058319535</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.14699881872643</v>
+        <v>22.89611080376313</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.015471503473728</v>
+        <v>8.291034355919729</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.024575959885126</v>
+        <v>8.906406401175323</v>
       </c>
       <c r="E18">
-        <v>19.95541536592146</v>
+        <v>42.30925376478743</v>
       </c>
       <c r="F18">
-        <v>36.20973971098365</v>
+        <v>70.19141053180378</v>
       </c>
       <c r="G18">
-        <v>56.34693520985559</v>
+        <v>113.9857790194214</v>
       </c>
       <c r="H18">
-        <v>16.33981001259289</v>
+        <v>28.33726613138041</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.07275961144547</v>
+        <v>22.6951386417961</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.00798681698603</v>
+        <v>8.261940017627388</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.008801897977272</v>
+        <v>8.851640870270082</v>
       </c>
       <c r="E19">
-        <v>19.86790610021658</v>
+        <v>42.03065679258151</v>
       </c>
       <c r="F19">
-        <v>36.08281351125076</v>
+        <v>69.76955167229339</v>
       </c>
       <c r="G19">
-        <v>56.11703346922739</v>
+        <v>113.2971701553253</v>
       </c>
       <c r="H19">
-        <v>16.30100592805423</v>
+        <v>28.16595259224448</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.04759001474561</v>
+        <v>22.62671469075574</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.041722081219453</v>
+        <v>8.392240843817204</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.079398517153265</v>
+        <v>9.100108981442812</v>
       </c>
       <c r="E20">
-        <v>20.25902557245064</v>
+        <v>43.2955472212946</v>
       </c>
       <c r="F20">
-        <v>36.65140384155789</v>
+        <v>71.67699005828159</v>
       </c>
       <c r="G20">
-        <v>57.14547825128386</v>
+        <v>116.4113151973261</v>
       </c>
       <c r="H20">
-        <v>16.47533801822657</v>
+        <v>28.94072650946125</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.16072234870305</v>
+        <v>22.93312538412437</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.155899150234889</v>
+        <v>8.90112058940425</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.309746544556469</v>
+        <v>9.985172229555642</v>
       </c>
       <c r="E21">
-        <v>21.52640628333927</v>
+        <v>47.82560118421774</v>
       </c>
       <c r="F21">
-        <v>38.51528771957199</v>
+        <v>78.32774261052114</v>
       </c>
       <c r="G21">
-        <v>60.49270200548502</v>
+        <v>127.2830476160726</v>
       </c>
       <c r="H21">
-        <v>17.0554304110521</v>
+        <v>31.64606848862706</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.53815713259445</v>
+        <v>23.9356237528178</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.231016616546967</v>
+        <v>9.221723313091603</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.455137147564349</v>
+        <v>10.62848554196553</v>
       </c>
       <c r="E22">
-        <v>22.32013858859541</v>
+        <v>51.15273412341581</v>
       </c>
       <c r="F22">
-        <v>39.69753703054367</v>
+        <v>83.0068713004506</v>
       </c>
       <c r="G22">
-        <v>62.59886043891643</v>
+        <v>134.9471908816516</v>
       </c>
       <c r="H22">
-        <v>17.42971607441627</v>
+        <v>33.55364072727316</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.7824431729434</v>
+        <v>24.56995441742191</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.19088749503514</v>
+        <v>9.05194560960325</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.378014062561288</v>
+        <v>10.27669120441179</v>
       </c>
       <c r="E23">
-        <v>21.89965602861509</v>
+        <v>49.32886037695863</v>
       </c>
       <c r="F23">
-        <v>39.06990661277872</v>
+        <v>80.46532830195137</v>
       </c>
       <c r="G23">
-        <v>61.4822596397713</v>
+        <v>130.7825003784469</v>
       </c>
       <c r="H23">
-        <v>17.23043429362993</v>
+        <v>32.51703088151404</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.65230661566006</v>
+        <v>24.23335248413411</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.039866059139563</v>
+        <v>8.385126792662897</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.075547295935355</v>
+        <v>9.08632325769946</v>
       </c>
       <c r="E24">
-        <v>20.23772358888641</v>
+        <v>43.22530352389212</v>
       </c>
       <c r="F24">
-        <v>36.62035102466096</v>
+        <v>71.57160166831443</v>
       </c>
       <c r="G24">
-        <v>57.08940569978319</v>
+        <v>116.2392140847111</v>
       </c>
       <c r="H24">
-        <v>16.46578405071612</v>
+        <v>28.89790715461453</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.15451869034861</v>
+        <v>22.91639831010819</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.879895846024574</v>
+        <v>7.745392391361772</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.727527600169029</v>
+        <v>7.934064160509231</v>
       </c>
       <c r="E25">
-        <v>18.29498466018679</v>
+        <v>37.37543895393695</v>
       </c>
       <c r="F25">
-        <v>33.83266512629792</v>
+        <v>62.58753621973656</v>
       </c>
       <c r="G25">
-        <v>52.00717024423898</v>
+        <v>101.5838375087876</v>
       </c>
       <c r="H25">
-        <v>15.62447975441807</v>
+        <v>25.25256024800279</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.60992361498235</v>
+        <v>21.41138112085527</v>
       </c>
       <c r="O25">
         <v>0</v>
